--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Analisis_Sensibilidad/sensibilidad_metricas_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Analisis_Sensibilidad/sensibilidad_metricas_No_Lineal_Estacionario_SETAR.xlsx
@@ -94,13 +94,13 @@
     <t>EnCQR-LSTM</t>
   </si>
   <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
     <t>Baja</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -522,49 +522,49 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.00518637327642435</v>
+        <v>0.009854345034440049</v>
       </c>
       <c r="C2">
-        <v>0.7790693506903134</v>
+        <v>1.576058173488203</v>
       </c>
       <c r="D2">
-        <v>0.002033307682141116</v>
+        <v>0.003858701634832202</v>
       </c>
       <c r="E2">
-        <v>0.003061734889472715</v>
+        <v>0.006127522165208322</v>
       </c>
       <c r="F2">
-        <v>0.00518637327642435</v>
+        <v>0.007642275126929055</v>
       </c>
       <c r="G2">
-        <v>0.7790693506903134</v>
+        <v>1.222269987071398</v>
       </c>
       <c r="H2">
-        <v>-0.7271145499718239</v>
+        <v>-0.08035155481608797</v>
       </c>
       <c r="I2">
-        <v>0.1639365518152919</v>
+        <v>0.8978034182309242</v>
       </c>
       <c r="J2">
-        <v>-0.6</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K2">
-        <v>0.2847569798652937</v>
+        <v>0.8728885715695383</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M2">
         <v>30</v>
       </c>
       <c r="N2">
-        <v>0.6615292813969161</v>
+        <v>0.6252526207601822</v>
       </c>
       <c r="O2">
-        <v>0.6667156546733405</v>
+        <v>0.6351069657946222</v>
       </c>
       <c r="P2">
-        <v>0.6641031165475231</v>
+        <v>0.6297327909708206</v>
       </c>
       <c r="Q2" t="s">
         <v>26</v>
@@ -575,49 +575,49 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.008353409474019302</v>
+        <v>0.01223317285178838</v>
       </c>
       <c r="C3">
-        <v>1.290836264687727</v>
+        <v>2.000444754998371</v>
       </c>
       <c r="D3">
-        <v>0.003188136281415202</v>
+        <v>0.004503470970691789</v>
       </c>
       <c r="E3">
-        <v>0.004955680918554547</v>
+        <v>0.007345544643645827</v>
       </c>
       <c r="F3">
-        <v>0.008353409474019302</v>
+        <v>0.01030964945356572</v>
       </c>
       <c r="G3">
-        <v>1.290836264687727</v>
+        <v>1.685898206877894</v>
       </c>
       <c r="H3">
-        <v>-0.04359706504875263</v>
+        <v>-0.07441256314298084</v>
       </c>
       <c r="I3">
-        <v>0.9445080822868847</v>
+        <v>0.905342492235115</v>
       </c>
       <c r="J3">
-        <v>-0.09999999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="K3">
-        <v>0.8728885715695383</v>
+        <v>0.747060078104662</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N3">
-        <v>0.6387781983476837</v>
+        <v>0.6069574066118956</v>
       </c>
       <c r="O3">
-        <v>0.647131607821703</v>
+        <v>0.6191905794636839</v>
       </c>
       <c r="P3">
-        <v>0.6433296117751472</v>
+        <v>0.6130887754643846</v>
       </c>
       <c r="Q3" t="s">
         <v>26</v>
@@ -628,49 +628,49 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.03379319617430521</v>
+        <v>0.01780400147927164</v>
       </c>
       <c r="C4">
-        <v>4.740017743367113</v>
+        <v>2.769145114699493</v>
       </c>
       <c r="D4">
-        <v>0.01085074830213908</v>
+        <v>0.006721674827209242</v>
       </c>
       <c r="E4">
-        <v>0.01559775342284708</v>
+        <v>0.01028106622131599</v>
       </c>
       <c r="F4">
-        <v>0.02017885726062885</v>
+        <v>0.0167851015298256</v>
       </c>
       <c r="G4">
-        <v>2.83039641953073</v>
+        <v>2.610670525677413</v>
       </c>
       <c r="H4">
-        <v>-0.6471884184054556</v>
+        <v>0.1966562545345497</v>
       </c>
       <c r="I4">
-        <v>0.2377995334984563</v>
+        <v>0.7512328948217765</v>
       </c>
       <c r="J4">
-        <v>-0.4999999999999999</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K4">
-        <v>0.3910022189557705</v>
+        <v>0.8728885715695383</v>
       </c>
       <c r="L4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N4">
-        <v>0.6791407632310854</v>
+        <v>0.6429421623577039</v>
       </c>
       <c r="O4">
-        <v>0.7129339594053906</v>
+        <v>0.6607461638369755</v>
       </c>
       <c r="P4">
-        <v>0.6956609716784762</v>
+        <v>0.6537916090135696</v>
       </c>
       <c r="Q4" t="s">
         <v>27</v>
@@ -681,52 +681,52 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.01833975378853014</v>
+        <v>0.02047151422964855</v>
       </c>
       <c r="C5">
-        <v>2.531105424469658</v>
+        <v>3.156733833545898</v>
       </c>
       <c r="D5">
-        <v>0.005848090489948558</v>
+        <v>0.00772004070047648</v>
       </c>
       <c r="E5">
-        <v>0.00806758934625508</v>
+        <v>0.01166147013669901</v>
       </c>
       <c r="F5">
-        <v>0.01092326036231928</v>
+        <v>0.02047151422964855</v>
       </c>
       <c r="G5">
-        <v>1.507540606856565</v>
+        <v>3.156733833545898</v>
       </c>
       <c r="H5">
-        <v>0.6812964947888239</v>
+        <v>0.3340277202651512</v>
       </c>
       <c r="I5">
-        <v>0.2053415840192442</v>
+        <v>0.5827493630145012</v>
       </c>
       <c r="J5">
-        <v>0.3</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K5">
-        <v>0.6238376647810728</v>
+        <v>0.8728885715695383</v>
       </c>
       <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
         <v>20</v>
       </c>
-      <c r="M5">
-        <v>50</v>
-      </c>
       <c r="N5">
-        <v>0.7166134370967593</v>
+        <v>0.6485030195483187</v>
       </c>
       <c r="O5">
-        <v>0.7349531908852894</v>
+        <v>0.6689745337779672</v>
       </c>
       <c r="P5">
-        <v>0.7248869815942233</v>
+        <v>0.6620126459168534</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,49 +734,49 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.02070987050936768</v>
+        <v>0.02424326216590589</v>
       </c>
       <c r="C6">
-        <v>2.943702967976201</v>
+        <v>3.663596052354749</v>
       </c>
       <c r="D6">
-        <v>0.006744416171763742</v>
+        <v>0.008423611706953837</v>
       </c>
       <c r="E6">
-        <v>0.0094555111337711</v>
+        <v>0.01246991400172862</v>
       </c>
       <c r="F6">
-        <v>0.008570334858904349</v>
+        <v>0.01016638051132246</v>
       </c>
       <c r="G6">
-        <v>1.218188213648899</v>
+        <v>1.536324247666506</v>
       </c>
       <c r="H6">
-        <v>0.9587575530574817</v>
+        <v>0.7510027150959826</v>
       </c>
       <c r="I6">
-        <v>0.009991838553782233</v>
+        <v>0.1434498839709558</v>
       </c>
       <c r="J6">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="K6">
-        <v>1.404265422054367E-24</v>
+        <v>0.1881204043741873</v>
       </c>
       <c r="L6">
         <v>10</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N6">
-        <v>0.7035312575577468</v>
+        <v>0.66173403998303</v>
       </c>
       <c r="O6">
-        <v>0.7242411280671145</v>
+        <v>0.6859773021489359</v>
       </c>
       <c r="P6">
-        <v>0.7132788567796753</v>
+        <v>0.6755148195718215</v>
       </c>
       <c r="Q6" t="s">
         <v>27</v>
@@ -787,52 +787,52 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>0.0236445431572696</v>
+        <v>0.009850059496155472</v>
       </c>
       <c r="C7">
-        <v>3.278772916836057</v>
+        <v>1.415523699829935</v>
       </c>
       <c r="D7">
-        <v>0.009881515944190488</v>
+        <v>0.003482930461979754</v>
       </c>
       <c r="E7">
-        <v>0.01351363750228578</v>
+        <v>0.004958948326605856</v>
       </c>
       <c r="F7">
-        <v>0.02184200886700716</v>
+        <v>0.008870982662960825</v>
       </c>
       <c r="G7">
-        <v>3.028816697624279</v>
+        <v>1.274823386102654</v>
       </c>
       <c r="H7">
-        <v>0.8531484661881297</v>
+        <v>0.4443380469183391</v>
       </c>
       <c r="I7">
-        <v>0.06604592746169173</v>
+        <v>0.4534622131787892</v>
       </c>
       <c r="J7">
-        <v>0.7999999999999999</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K7">
-        <v>0.1040880386618279</v>
+        <v>0.8728885715695383</v>
       </c>
       <c r="L7">
         <v>10</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N7">
-        <v>0.7211400044162273</v>
+        <v>0.6958597370951037</v>
       </c>
       <c r="O7">
-        <v>0.7447845475734969</v>
+        <v>0.7057097965912592</v>
       </c>
       <c r="P7">
-        <v>0.7312254707527168</v>
+        <v>0.7023526426547058</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,49 +840,49 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>0.01291714661863852</v>
+        <v>0.01574135218614436</v>
       </c>
       <c r="C8">
-        <v>1.819585494407476</v>
+        <v>2.318103457090188</v>
       </c>
       <c r="D8">
-        <v>0.00413864953981411</v>
+        <v>0.005882729263099541</v>
       </c>
       <c r="E8">
-        <v>0.005826502639949992</v>
+        <v>0.008583812449643175</v>
       </c>
       <c r="F8">
-        <v>0.008153838524312618</v>
+        <v>0.01154255264395854</v>
       </c>
       <c r="G8">
-        <v>1.148597808835888</v>
+        <v>1.699779718489324</v>
       </c>
       <c r="H8">
-        <v>0.4055647326598724</v>
+        <v>-0.08085952721105422</v>
       </c>
       <c r="I8">
-        <v>0.4981464992414262</v>
+        <v>0.8971587522370419</v>
       </c>
       <c r="J8">
-        <v>0.2</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K8">
-        <v>0.747060078104662</v>
+        <v>0.8728885715695383</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8">
-        <v>0.7046074874561903</v>
+        <v>0.6790616759574563</v>
       </c>
       <c r="O8">
-        <v>0.7175246340748288</v>
+        <v>0.6948030281436006</v>
       </c>
       <c r="P8">
-        <v>0.7103145395381871</v>
+        <v>0.6853282614934211</v>
       </c>
       <c r="Q8" t="s">
         <v>26</v>
@@ -893,49 +893,49 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0.01649377215386638</v>
+        <v>0.007705225802773108</v>
       </c>
       <c r="C9">
-        <v>2.60875157162652</v>
+        <v>1.281091362137198</v>
       </c>
       <c r="D9">
-        <v>0.006770471322189924</v>
+        <v>0.003001463509898648</v>
       </c>
       <c r="E9">
-        <v>0.01082384870963003</v>
+        <v>0.004954518460148312</v>
       </c>
       <c r="F9">
-        <v>0.01649377215386638</v>
+        <v>0.007705225802773108</v>
       </c>
       <c r="G9">
-        <v>2.60875157162652</v>
+        <v>1.281091362137198</v>
       </c>
       <c r="H9">
-        <v>-0.3575063156390476</v>
+        <v>0.04381395676938807</v>
       </c>
       <c r="I9">
-        <v>0.5547001604578222</v>
+        <v>0.944232191049703</v>
       </c>
       <c r="J9">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.747060078104662</v>
+        <v>1</v>
       </c>
       <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
         <v>20</v>
       </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
       <c r="N9">
-        <v>0.6167276231584793</v>
+        <v>0.6014579467555505</v>
       </c>
       <c r="O9">
-        <v>0.6332213953123457</v>
+        <v>0.6091631725583236</v>
       </c>
       <c r="P9">
-        <v>0.6255142236204948</v>
+        <v>0.6058032751398408</v>
       </c>
       <c r="Q9" t="s">
         <v>28</v>
@@ -946,49 +946,49 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>0.02606327606039949</v>
+        <v>0.009884975939757012</v>
       </c>
       <c r="C10">
-        <v>2.895510566518926</v>
+        <v>1.476819265285601</v>
       </c>
       <c r="D10">
-        <v>0.008634882350368108</v>
+        <v>0.003207245845974849</v>
       </c>
       <c r="E10">
-        <v>0.009582633819760746</v>
+        <v>0.004762496795095368</v>
       </c>
       <c r="F10">
-        <v>0.02606327606039949</v>
+        <v>0.009884975939757012</v>
       </c>
       <c r="G10">
-        <v>2.895510566518926</v>
+        <v>1.476819265285601</v>
       </c>
       <c r="H10">
-        <v>0.3143047498887291</v>
+        <v>0.02854373478434682</v>
       </c>
       <c r="I10">
-        <v>0.6065048998403254</v>
+        <v>0.9636619237680635</v>
       </c>
       <c r="J10">
-        <v>0.3</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K10">
-        <v>0.6238376647810728</v>
+        <v>0.8728885715695383</v>
       </c>
       <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
         <v>20</v>
       </c>
-      <c r="M10">
-        <v>30</v>
-      </c>
       <c r="N10">
-        <v>0.888373636049735</v>
+        <v>0.6693422934082164</v>
       </c>
       <c r="O10">
-        <v>0.9144369121101344</v>
+        <v>0.6792272693479734</v>
       </c>
       <c r="P10">
-        <v>0.9010969752973091</v>
+        <v>0.6734379011609655</v>
       </c>
       <c r="Q10" t="s">
         <v>28</v>
